--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9040/person2.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9040/person2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11603" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11604" uniqueCount="2178">
   <si>
     <t>_id</t>
   </si>
@@ -6545,6 +6545,9 @@
   </si>
   <si>
     <t>Zutter</t>
+  </si>
+  <si>
+    <t>Pays</t>
   </si>
 </sst>
 </file>
@@ -6588,7 +6591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6650,6 +6653,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6665,7 +6671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6951,15 +6957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA967"/>
+  <dimension ref="A1:BB967"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7119,8 +7125,11 @@
       <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB1" s="21" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>192956</v>
       </c>
@@ -7167,7 +7176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>192957</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>192958</v>
       </c>
@@ -7267,7 +7276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>192959</v>
       </c>
@@ -7317,7 +7326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>192960</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>192961</v>
       </c>
@@ -7417,7 +7426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>192962</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>192963</v>
       </c>
@@ -7517,7 +7526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>192964</v>
       </c>
@@ -7567,7 +7576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>192965</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>192966</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>192967</v>
       </c>
@@ -7720,7 +7729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>192968</v>
       </c>
@@ -7767,7 +7776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>192969</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>192970</v>
       </c>
